--- a/ky/downloads/data-excel/1.2.2.xlsx
+++ b/ky/downloads/data-excel/1.2.2.xlsx
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,9 +527,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -860,9 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -931,7 +926,9 @@
       <c r="J4" s="8">
         <v>2022</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="8">
+        <v>2023</v>
+      </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -964,22 +961,24 @@
       <c r="I5" s="14">
         <v>48.5</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="40">
         <v>47.4</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="40">
+        <v>43.6</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="2"/>
@@ -988,8 +987,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -1022,10 +1021,12 @@
       <c r="I7" s="33">
         <v>48.8</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>47.9</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="41">
+        <v>43.5</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -1052,28 +1053,30 @@
       <c r="G8" s="33">
         <v>41.9</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>42</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>48.2</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <v>46.9</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="42">
+        <v>43.6</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="2"/>
@@ -1082,8 +1085,8 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -1104,22 +1107,24 @@
       <c r="E10" s="2">
         <v>60</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>56</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>52</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>50.9</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>58.2</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>56.8</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="42">
+        <v>52.6</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -1152,10 +1157,12 @@
       <c r="I11" s="33">
         <v>42.4</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>41.4</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="41">
+        <v>38.200000000000003</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -1188,19 +1195,21 @@
       <c r="I12" s="33">
         <v>40.700000000000003</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>39</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="42">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="9"/>
@@ -1209,8 +1218,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -1243,10 +1252,12 @@
       <c r="I14" s="33">
         <v>41.5</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>39.5</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="41">
+        <v>36.799999999999997</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -1279,10 +1290,12 @@
       <c r="I15" s="33">
         <v>52.6</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="41">
         <v>51.9</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="41">
+        <v>47.4</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -1291,10 +1304,10 @@
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="9"/>
@@ -1303,8 +1316,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -1337,10 +1350,12 @@
       <c r="I17" s="33">
         <v>67.099999999999994</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>69.900000000000006</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="41">
+        <v>69.3</v>
+      </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -1373,10 +1388,12 @@
       <c r="I18" s="33">
         <v>62</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>61</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="42">
+        <v>54.9</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -1409,10 +1426,12 @@
       <c r="I19" s="33">
         <v>46.9</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>42.5</v>
       </c>
-      <c r="K19" s="36"/>
+      <c r="K19" s="41">
+        <v>45.4</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -1436,16 +1455,18 @@
       <c r="G20" s="33">
         <v>47.8</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>49</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>55.8</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>54</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="42">
+        <v>49.3</v>
+      </c>
       <c r="L20" s="35"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1478,10 +1499,12 @@
       <c r="I21" s="33">
         <v>42.7</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>42.5</v>
       </c>
-      <c r="K21" s="36"/>
+      <c r="K21" s="41">
+        <v>37.1</v>
+      </c>
       <c r="L21" s="35"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1502,22 +1525,24 @@
       <c r="E22" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>43</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>40.200000000000003</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>33.9</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>48.3</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <v>45.8</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="42">
+        <v>41.1</v>
+      </c>
       <c r="L22" s="35"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -1538,22 +1563,24 @@
       <c r="E23" s="33">
         <v>48.7</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>28</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>31.7</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>34.6</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>39.700000000000003</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <v>38.1</v>
       </c>
-      <c r="K23" s="36"/>
+      <c r="K23" s="42">
+        <v>35.700000000000003</v>
+      </c>
       <c r="L23" s="35"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -1586,10 +1613,12 @@
       <c r="I24" s="33">
         <v>38.1</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>38.9</v>
       </c>
-      <c r="K24" s="36"/>
+      <c r="K24" s="41">
+        <v>36.799999999999997</v>
+      </c>
       <c r="L24" s="35"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -1622,10 +1651,12 @@
       <c r="I25" s="34">
         <v>44.7</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <v>38.700000000000003</v>
       </c>
-      <c r="K25" s="36"/>
+      <c r="K25" s="43">
+        <v>26</v>
+      </c>
       <c r="L25" s="35"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
